--- a/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>VVOS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,178 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G8" s="3">
         <v>6500</v>
       </c>
-      <c r="E8" s="3">
-        <v>11400</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>700</v>
+      </c>
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
+        <v>900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>800</v>
+      </c>
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G10" s="3">
         <v>5200</v>
       </c>
-      <c r="E10" s="3">
-        <v>8700</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J10" s="3">
         <v>3900</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +848,11 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +880,17 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +918,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -877,17 +936,17 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,37 +956,55 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>200</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3">
-        <v>800</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +1013,87 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G17" s="3">
         <v>10400</v>
       </c>
-      <c r="E17" s="3">
-        <v>22000</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J17" s="3">
         <v>10000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,13 +1105,16 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1021,110 +1122,146 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3600</v>
       </c>
-      <c r="E21" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-5000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1289,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1327,93 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-5000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1441,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1479,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1517,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,13 +1555,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1369,52 +1578,70 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-5000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1669,98 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-5000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1772,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,23 +1788,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1820,17 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,23 +1858,32 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1896,17 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,23 +1934,32 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>800</v>
+      </c>
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,23 +1972,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,22 +2010,31 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>800</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1734,23 +2048,32 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,23 +2086,32 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G49" s="3">
         <v>3200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +2124,17 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2162,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,22 +2200,31 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +2238,17 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,23 +2276,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G54" s="3">
         <v>6900</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2314,17 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2336,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,23 +2352,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,23 +2384,32 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,23 +2422,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,23 +2460,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,22 +2498,31 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2108,22 +2536,31 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2574,17 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2612,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2650,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,23 +2688,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G66" s="3">
         <v>7400</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2726,17 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2748,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2780,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,23 +2818,32 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G70" s="3">
         <v>4700</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2353,8 +2856,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,23 +2894,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-27300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2932,17 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2970,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +3008,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,23 +3046,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +3084,17 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +3122,98 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-5000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +3225,49 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
-        <v>800</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3295,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3333,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3371,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3409,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3447,55 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3507,49 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3577,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3615,55 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3675,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3707,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3745,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3783,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,37 +3821,55 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>20400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
+        <v>700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,33 +3897,51 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>900</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>VVOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,54 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,35 +722,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3300</v>
       </c>
       <c r="F8" s="3">
         <v>3300</v>
       </c>
       <c r="G8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H8" s="3">
         <v>6500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,35 +763,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,35 +804,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,29 +944,32 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,20 +1003,20 @@
         <v>200</v>
       </c>
       <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
         <v>400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
       </c>
       <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,35 +1042,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E17" s="3">
         <v>6900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,35 +1081,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,17 +1141,18 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1134,8 +1168,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1146,35 +1180,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1199,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1222,35 +1262,38 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,35 +1385,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,35 +1426,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,17 +1631,20 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1590,8 +1660,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1602,35 +1672,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,35 +1754,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,40 +1795,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,26 +1877,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E41" s="3">
         <v>14100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,26 +1957,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,26 +2039,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,26 +2080,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E46" s="3">
         <v>16700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2036,8 +2141,8 @@
       <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2057,26 +2162,29 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>900</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
       </c>
       <c r="G48" s="3">
+        <v>900</v>
+      </c>
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,26 +2203,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E49" s="3">
         <v>3000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2326,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2218,7 +2338,7 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -2226,8 +2346,8 @@
       <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,26 +2408,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E54" s="3">
         <v>22000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,26 +2485,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,26 +2524,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,26 +2565,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,26 +2606,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E60" s="3">
         <v>7300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,25 +2647,28 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1300</v>
       </c>
       <c r="G61" s="3">
         <v>1300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2545,13 +2688,16 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -2562,8 +2708,8 @@
       <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,26 +2852,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2839,14 +3007,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>6900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>4700</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,26 +3074,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,26 +3238,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E76" s="3">
         <v>14300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,40 +3320,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,35 +3366,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3243,20 +3442,20 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,35 +3670,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,35 +3730,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,35 +3851,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,35 +4073,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>25400</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>20400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,35 +4155,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>VVOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +726,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -734,29 +738,29 @@
         <v>4500</v>
       </c>
       <c r="E8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F8" s="3">
         <v>3400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3300</v>
       </c>
       <c r="G8" s="3">
         <v>3300</v>
       </c>
       <c r="H8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I8" s="3">
         <v>6500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,38 +770,41 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,38 +814,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>3600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3900</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +878,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,21 +978,21 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,20 +1029,20 @@
         <v>200</v>
       </c>
       <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
       </c>
       <c r="K15" s="3">
+        <v>200</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1069,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,38 +1111,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,20 +1175,21 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1171,8 +1205,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1183,38 +1217,41 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1242,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1265,38 +1305,41 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1349,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1437,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1481,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,20 +1701,23 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1663,8 +1733,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1675,38 +1745,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1833,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,29 +1964,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E41" s="3">
         <v>34200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,29 +2050,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2094,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,29 +2138,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,29 +2182,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E46" s="3">
         <v>39400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2144,8 +2249,8 @@
       <c r="H47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2165,29 +2270,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>900</v>
       </c>
       <c r="G48" s="3">
         <v>900</v>
       </c>
       <c r="H48" s="3">
+        <v>900</v>
+      </c>
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,29 +2314,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2446,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2341,7 +2461,7 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2349,8 +2469,8 @@
       <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,29 +2534,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>22000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,29 +2616,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2536,20 +2670,20 @@
         <v>1300</v>
       </c>
       <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,29 +2702,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
         <v>6800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,29 +2746,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E60" s="3">
         <v>9300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2790,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2659,19 +2802,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1300</v>
       </c>
       <c r="H61" s="3">
         <v>1300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2691,8 +2834,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2700,7 +2846,7 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -2711,8 +2857,8 @@
       <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,29 +3010,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E66" s="3">
         <v>9700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3010,14 +3178,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>6900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>4700</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,29 +3248,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-42800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,29 +3424,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E76" s="3">
         <v>36500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3561,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3445,20 +3644,20 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,38 +3887,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,38 +3951,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,38 +4081,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,38 +4319,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>25400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>20400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,38 +4407,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E102" s="3">
         <v>20100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>VVOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,61 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,41 +729,44 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E8" s="3">
         <v>4500</v>
       </c>
       <c r="F8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G8" s="3">
         <v>3400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3300</v>
       </c>
       <c r="H8" s="3">
         <v>3300</v>
       </c>
       <c r="I8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J8" s="3">
         <v>6500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,41 +776,44 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,32 +835,32 @@
         <v>3100</v>
       </c>
       <c r="E10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F10" s="3">
         <v>3600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +891,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,13 +983,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -981,21 +1000,21 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,8 +1030,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,20 +1054,20 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
       </c>
       <c r="L15" s="3">
+        <v>200</v>
+      </c>
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,8 +1077,11 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,41 +1095,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,41 +1140,44 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,23 +1208,24 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1208,8 +1241,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1220,41 +1253,44 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1285,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1308,41 +1347,44 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1394,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,41 +1488,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,41 +1535,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,23 +1770,26 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1736,8 +1805,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1748,41 +1817,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,41 +1911,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,46 +1958,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,32 +2050,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E41" s="3">
         <v>28500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,32 +2142,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2189,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,32 +2236,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,32 +2283,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E46" s="3">
         <v>34000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>39400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,13 +2330,16 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>800</v>
@@ -2252,8 +2356,8 @@
       <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2273,32 +2377,35 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>900</v>
       </c>
       <c r="H48" s="3">
         <v>900</v>
       </c>
       <c r="I48" s="3">
+        <v>900</v>
+      </c>
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2424,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2326,23 +2436,23 @@
         <v>3200</v>
       </c>
       <c r="E49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F49" s="3">
         <v>3300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2471,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,8 +2565,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2464,7 +2583,7 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2472,8 +2591,8 @@
       <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2493,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,32 +2659,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E54" s="3">
         <v>41000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,32 +2746,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2791,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2673,20 +2806,20 @@
         <v>1300</v>
       </c>
       <c r="F58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,32 +2838,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,32 +2885,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E60" s="3">
         <v>8200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,31 +2932,34 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1300</v>
       </c>
       <c r="I61" s="3">
         <v>1300</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2837,19 +2979,22 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -2860,8 +3005,8 @@
       <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2881,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,32 +3167,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E66" s="3">
         <v>8600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3181,14 +3348,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>6900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>4700</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3207,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,32 +3421,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-42800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,32 +3609,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E76" s="3">
         <v>32500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>36500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3703,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,41 +3755,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3823,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3647,20 +3845,20 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3670,8 +3868,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,8 +4103,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3899,32 +4115,32 @@
         <v>-4100</v>
       </c>
       <c r="E89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +4171,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3961,32 +4181,32 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4216,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,8 +4310,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4093,32 +4322,32 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,41 +4564,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>25400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>20400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,41 +4658,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>VVOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,65 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,44 +733,47 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="3">
         <v>4400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4500</v>
       </c>
       <c r="F8" s="3">
         <v>4500</v>
       </c>
       <c r="G8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H8" s="3">
         <v>3400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3300</v>
       </c>
       <c r="I8" s="3">
         <v>3300</v>
       </c>
       <c r="J8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K8" s="3">
         <v>6500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,44 +783,47 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,44 +833,47 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="E10" s="3">
         <v>3100</v>
       </c>
       <c r="F10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G10" s="3">
         <v>3600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,38 +1003,41 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,20 +1080,20 @@
         <v>200</v>
       </c>
       <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
       </c>
       <c r="M15" s="3">
+        <v>200</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,44 +1122,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,44 +1170,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,17 +1252,17 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1244,8 +1278,8 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1256,44 +1290,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,13 +1340,16 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1327,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
@@ -1350,44 +1390,47 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1440,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,44 +1540,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,44 +1590,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1782,17 +1852,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1808,8 +1878,8 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1820,44 +1890,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,44 +1990,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,49 +2040,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2137,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E41" s="3">
         <v>24000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,35 +2235,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,35 +2335,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,35 +2385,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E46" s="3">
         <v>27300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,16 +2435,19 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>800</v>
@@ -2359,8 +2464,8 @@
       <c r="J47" s="3">
         <v>800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>800</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2380,35 +2485,38 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>900</v>
       </c>
       <c r="I48" s="3">
         <v>900</v>
       </c>
       <c r="J48" s="3">
+        <v>900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,23 +2550,23 @@
         <v>3200</v>
       </c>
       <c r="F49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G49" s="3">
         <v>3300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,8 +2685,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2586,7 +2706,7 @@
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2594,8 +2714,8 @@
       <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>300</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2785,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E54" s="3">
         <v>33700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>41000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,8 +2877,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2756,26 +2887,26 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,13 +2925,16 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>1300</v>
@@ -2809,20 +2943,20 @@
         <v>1300</v>
       </c>
       <c r="G58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,35 +2975,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,35 +3025,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
         <v>7500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,34 +3075,37 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1300</v>
       </c>
       <c r="J61" s="3">
         <v>1300</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2982,22 +3125,25 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
-      </c>
-      <c r="E62" s="3">
-        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -3008,8 +3154,8 @@
       <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>200</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3325,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3351,14 +3519,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>6900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>4700</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3595,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-42800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-27300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3795,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E76" s="3">
         <v>25500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,49 +3895,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,44 +3950,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,13 +4022,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -3848,20 +4047,20 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,44 +4320,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4100</v>
+        <v>-6100</v>
       </c>
       <c r="E89" s="3">
         <v>-4100</v>
       </c>
       <c r="F89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,44 +4392,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,44 +4540,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>
       </c>
       <c r="F94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,8 +4810,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4576,35 +4822,35 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>25400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>20400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,44 +4910,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>VVOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,229 +665,255 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="E8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G8" s="3">
         <v>4400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2700</v>
       </c>
       <c r="J10" s="3">
         <v>2600</v>
       </c>
       <c r="K10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M10" s="3">
         <v>5200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +932,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,8 +984,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,44 +1040,50 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,8 +1096,14 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,31 +1129,37 @@
         <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
       </c>
       <c r="M15" s="3">
+        <v>400</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
+        <v>200</v>
+      </c>
+      <c r="P15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,58 +1175,66 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F17" s="3">
         <v>9000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,49 +1242,55 @@
         <v>-5500</v>
       </c>
       <c r="E18" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1309,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1267,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1281,11 +1349,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1293,69 +1361,81 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="E21" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="F21" s="3">
         <v>-5300</v>
       </c>
       <c r="G21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1370,22 +1450,22 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1393,58 +1473,70 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-5500</v>
       </c>
-      <c r="E23" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,8 +1585,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,108 +1641,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-5500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1809,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1865,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1921,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1977,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1867,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1881,11 +2021,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1893,58 +2033,70 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-5500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,113 +2145,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-5500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2288,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,41 +2310,43 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F41" s="3">
         <v>17800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>24000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>28500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>34200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>18200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2362,14 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,41 +2418,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2474,14 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,41 +2530,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="E45" s="3">
         <v>2100</v>
       </c>
       <c r="F45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,41 +2586,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F46" s="3">
         <v>21600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>27300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>34000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>39400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>16700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>20400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,22 +2642,28 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>800</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>800</v>
@@ -2467,11 +2677,11 @@
       <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>800</v>
+      </c>
+      <c r="M47" s="3">
+        <v>800</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2488,41 +2698,47 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,8 +2754,14 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2553,26 +2775,26 @@
         <v>3200</v>
       </c>
       <c r="G49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I49" s="3">
         <v>3300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2900</v>
       </c>
       <c r="J49" s="3">
         <v>3000</v>
       </c>
       <c r="K49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M49" s="3">
         <v>3200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2810,14 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2866,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,8 +2922,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2709,19 +2949,19 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
+        <v>300</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2738,8 +2978,14 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,41 +3034,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F54" s="3">
         <v>29600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>33700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>41000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>46200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>22000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>25300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +3090,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +3116,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,41 +3138,43 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,8 +3190,14 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2937,32 +3205,32 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>1300</v>
       </c>
       <c r="H58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,41 +3246,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="E59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G59" s="3">
         <v>5300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,41 +3302,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6900</v>
+        <v>6000</v>
       </c>
       <c r="E60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,8 +3358,14 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3087,32 +3373,32 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3128,28 +3414,34 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="E62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -3157,11 +3449,11 @@
       <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>200</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3178,8 +3470,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3526,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3582,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,41 +3638,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="E66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G66" s="3">
         <v>8200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3694,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3720,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3772,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3828,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3522,17 +3858,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>6900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>4700</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3548,8 +3884,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,41 +3940,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-61100</v>
+        <v>-73400</v>
       </c>
       <c r="E72" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-55600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-48200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-42800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-38700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-35300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-29100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-27300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3996,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +4052,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +4108,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,41 +4164,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20900</v>
+        <v>9900</v>
       </c>
       <c r="E76" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G76" s="3">
         <v>25500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>32500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>36500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>14300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>16900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-6900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4220,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,113 +4276,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-5500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,19 +4419,21 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -4050,31 +4448,37 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4527,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4583,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4639,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4695,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,58 +4751,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,8 +4833,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4402,28 +4844,28 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4431,11 +4873,11 @@
       <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-100</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4443,8 +4885,14 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4941,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,8 +4997,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4552,49 +5012,55 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +5079,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +5131,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +5187,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5243,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,8 +5299,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,46 +5317,52 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>25400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>20400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,54 +5411,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>20100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>16700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>VVOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,76 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,53 +744,56 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E8" s="3">
         <v>4200</v>
       </c>
       <c r="F8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4500</v>
       </c>
       <c r="I8" s="3">
         <v>4500</v>
       </c>
       <c r="J8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3300</v>
       </c>
       <c r="L8" s="3">
         <v>3300</v>
       </c>
       <c r="M8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N8" s="3">
         <v>6500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,53 +803,56 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,53 +862,56 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E10" s="3">
         <v>2500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3100</v>
       </c>
       <c r="H10" s="3">
         <v>3100</v>
       </c>
       <c r="I10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J10" s="3">
         <v>3600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +946,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1062,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,35 +1077,35 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1102,8 +1121,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,20 +1157,20 @@
         <v>200</v>
       </c>
       <c r="M15" s="3">
+        <v>200</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
       </c>
       <c r="P15" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>400</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1180,11 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,53 +1202,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,53 +1259,56 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,13 +1343,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1329,17 +1362,17 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1355,8 +1388,8 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1367,53 +1400,56 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,13 +1459,16 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1437,8 +1476,8 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1456,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1479,53 +1518,56 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,8 +1577,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,8 +1636,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,53 +1695,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,53 +1754,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,13 +2049,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2001,17 +2070,17 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2027,8 +2096,8 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2039,53 +2108,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,53 +2226,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,58 +2285,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,44 +2397,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
         <v>6700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2454,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,44 +2513,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2480,8 +2572,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,44 +2631,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="E45" s="3">
         <v>2100</v>
       </c>
       <c r="F45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,44 +2690,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E46" s="3">
         <v>9700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>39400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2749,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2662,11 +2766,11 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>800</v>
@@ -2683,8 +2787,8 @@
       <c r="M47" s="3">
         <v>800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>800</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2704,44 +2808,47 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>900</v>
       </c>
       <c r="L48" s="3">
         <v>900</v>
       </c>
       <c r="M48" s="3">
+        <v>900</v>
+      </c>
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,13 +2867,16 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E49" s="3">
         <v>3200</v>
@@ -2781,23 +2891,23 @@
         <v>3200</v>
       </c>
       <c r="I49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J49" s="3">
         <v>3300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,8 +2926,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,8 +3044,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2955,7 +3074,7 @@
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -2963,8 +3082,8 @@
       <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>300</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2984,8 +3103,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,44 +3162,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E54" s="3">
         <v>18400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,44 +3269,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>900</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3326,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3211,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>1300</v>
@@ -3220,20 +3353,20 @@
         <v>1300</v>
       </c>
       <c r="J58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3252,44 +3385,47 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
         <v>5300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>5400</v>
       </c>
       <c r="F59" s="3">
         <v>5400</v>
       </c>
       <c r="G59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H59" s="3">
         <v>5300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,44 +3444,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,8 +3503,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3379,28 +3521,28 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1300</v>
       </c>
       <c r="M61" s="3">
         <v>1300</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3420,31 +3562,34 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -3455,8 +3600,8 @@
       <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>200</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3476,8 +3621,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,44 +3798,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
         <v>8500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3864,14 +4031,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>6900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>4700</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3890,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,44 +4116,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-73400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-61000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-42800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-27300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,44 +4352,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E76" s="3">
         <v>9900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,58 +4470,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,53 +4534,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4399,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,8 +4618,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4430,13 +4628,13 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -4454,20 +4652,20 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4477,8 +4675,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,53 +4970,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-4100</v>
       </c>
       <c r="H89" s="3">
         <v>-4100</v>
       </c>
       <c r="I89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,53 +5054,54 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
       <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4891,8 +5111,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,53 +5229,56 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-400</v>
       </c>
       <c r="H94" s="3">
         <v>-400</v>
       </c>
       <c r="I94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5059,8 +5288,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5137,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,8 +5547,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5323,35 +5568,35 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>25400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>20400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5606,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,53 +5665,56 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5471,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VVOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>VVOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,267 +665,293 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5000</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="E9" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="F9" s="3">
         <v>1600</v>
       </c>
       <c r="G9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E10" s="3">
         <v>2400</v>
       </c>
-      <c r="E10" s="3">
-        <v>2500</v>
-      </c>
       <c r="F10" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G10" s="3">
         <v>2500</v>
       </c>
       <c r="H10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J10" s="3">
         <v>3100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2700</v>
       </c>
       <c r="M10" s="3">
         <v>2600</v>
       </c>
       <c r="N10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P10" s="3">
         <v>5200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>3900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,8 +973,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1006,8 +1034,14 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,8 +1099,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,38 +1120,38 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,13 +1164,19 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1160,31 +1206,37 @@
         <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
       </c>
       <c r="P15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,126 +1255,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>11100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>10000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,20 +1410,22 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1365,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1377,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1391,11 +1459,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1403,87 +1471,99 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5900</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-6700</v>
       </c>
       <c r="G21" s="3">
         <v>-5300</v>
       </c>
       <c r="H21" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="I21" s="3">
         <v>-5300</v>
       </c>
       <c r="J21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1498,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1521,67 +1601,79 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-7000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,8 +1731,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,126 +1796,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-5000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1991,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +2056,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2121,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,20 +2186,26 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2073,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2085,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2099,11 +2239,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2111,67 +2251,79 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,131 +2381,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2545,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,50 +2570,52 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>17800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>24000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>28500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>34200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>14100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>18200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,8 +2631,14 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2516,50 +2696,56 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2761,14 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2634,50 +2826,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2800</v>
       </c>
       <c r="H45" s="3">
         <v>2100</v>
       </c>
       <c r="I45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,50 +2891,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F46" s="3">
         <v>5400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>15500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>21600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>27300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>34000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>39400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>16700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>20400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,8 +2956,14 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2769,14 +2979,14 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>800</v>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>800</v>
@@ -2790,11 +3000,11 @@
       <c r="N47" s="3">
         <v>800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>800</v>
+      </c>
+      <c r="P47" s="3">
+        <v>800</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
@@ -2811,8 +3021,14 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2820,41 +3036,41 @@
         <v>4800</v>
       </c>
       <c r="E48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2870,19 +3086,25 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F49" s="3">
         <v>3100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3200</v>
       </c>
       <c r="G49" s="3">
         <v>3200</v>
@@ -2894,26 +3116,26 @@
         <v>3200</v>
       </c>
       <c r="J49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L49" s="3">
         <v>3300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2900</v>
       </c>
       <c r="M49" s="3">
         <v>3000</v>
       </c>
       <c r="N49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P49" s="3">
         <v>3200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3151,14 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3216,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,16 +3281,22 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -3077,19 +3317,19 @@
         <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>300</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -3106,8 +3346,14 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,8 +3411,14 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3174,41 +3426,41 @@
         <v>13700</v>
       </c>
       <c r="E54" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G54" s="3">
         <v>18400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>24400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>29600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>33700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>41000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>46200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>22000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>25300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3476,14 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3505,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,50 +3530,52 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,16 +3591,22 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3347,32 +3615,32 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>1300</v>
       </c>
       <c r="K58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3388,50 +3656,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5400</v>
+        <v>7100</v>
       </c>
       <c r="E59" s="3">
-        <v>5300</v>
+        <v>6500</v>
       </c>
       <c r="F59" s="3">
         <v>5400</v>
       </c>
       <c r="G59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J59" s="3">
         <v>5300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3447,50 +3721,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F60" s="3">
         <v>6800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3506,8 +3786,14 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3524,32 +3810,32 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3565,37 +3851,43 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
@@ -3603,11 +3895,11 @@
       <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>200</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3624,8 +3916,14 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3981,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +4046,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,50 +4111,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F66" s="3">
         <v>8900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>8500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9500</v>
       </c>
       <c r="G66" s="3">
         <v>8500</v>
       </c>
       <c r="H66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J66" s="3">
         <v>8200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4176,14 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4205,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4266,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4331,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4034,17 +4370,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>6900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>4700</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4060,8 +4396,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,50 +4461,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-86700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-79500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-73400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-67900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-61000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-55600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-48200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-42800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-38700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-35300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-29100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-27300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4178,8 +4526,14 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4591,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4656,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,50 +4721,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>14800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>21000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>25500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>32500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>36500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>16900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-6900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,8 +4786,14 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,131 +4851,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,28 +5015,30 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
-      </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4655,31 +5053,37 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +5141,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5206,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5271,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5336,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,67 +5401,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-5800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-3000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,8 +5495,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5064,37 +5506,37 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5102,11 +5544,11 @@
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-100</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5114,8 +5556,14 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5621,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,8 +5686,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5241,58 +5701,64 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F94" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5780,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5841,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5906,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5971,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,8 +6036,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5559,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5571,46 +6063,52 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>25400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>20400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5668,63 +6166,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>20100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>16700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
